--- a/biology/Médecine/Syndrome_d'hyperviscosité/Syndrome_d'hyperviscosité.xlsx
+++ b/biology/Médecine/Syndrome_d'hyperviscosité/Syndrome_d'hyperviscosité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27hyperviscosit%C3%A9</t>
+          <t>Syndrome_d'hyperviscosité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome d'hyperviscosité est un syndrome clinique d'augmentation de la viscosité sanguine  entraînant une résistance à l'écoulement du flux sanguin dans les vaisseaux. C'est une urgence thérapeutique médicale[1]. 
-Selon Gaétan Chevalier &amp; al. (2013), « l'augmentation de la viscosité du sang dans la population générale peut être prédictrice d'événements cardiovasculaires en raison de ses influences sur l'hypertension, la thrombogenèse, l'ischémie et l'arthrogénèse »[2].
-En 1991, Stoltz et Donner avaient proposé qu'un profil hémorhéologique (c'est-à-dire un profil de viscosité sanguine) soit dressé lors de l'analyse de sang des patients[3]. 
-Selon une étude de 2008, la viscosité du sang est cependant devenue un facteur de risque oublié, peu mesurée en  pratique clinique[4],[3]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome d'hyperviscosité est un syndrome clinique d'augmentation de la viscosité sanguine  entraînant une résistance à l'écoulement du flux sanguin dans les vaisseaux. C'est une urgence thérapeutique médicale. 
+Selon Gaétan Chevalier &amp; al. (2013), « l'augmentation de la viscosité du sang dans la population générale peut être prédictrice d'événements cardiovasculaires en raison de ses influences sur l'hypertension, la thrombogenèse, l'ischémie et l'arthrogénèse ».
+En 1991, Stoltz et Donner avaient proposé qu'un profil hémorhéologique (c'est-à-dire un profil de viscosité sanguine) soit dressé lors de l'analyse de sang des patients. 
+Selon une étude de 2008, la viscosité du sang est cependant devenue un facteur de risque oublié, peu mesurée en  pratique clinique,
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27hyperviscosit%C3%A9</t>
+          <t>Syndrome_d'hyperviscosité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,18 +526,20 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Augmentation importante du nombre d'éléments figurés du sang : polycythémies, leucémies, thrombocytémies ;
 Augmentation de l'hématocrite : polyglobulies et pseudo-polyglobulies ;
 Augmentation du taux de certaines protides :
-Gammapathies monoclonales (myélome multiple à IgG ou à IgA, macroglobulinémie de Waldenström[5],[6],[7]) et polyclonales (syndrome de Sjögren, lymphadénopathie angio-immunoblastique, anomalies des immunoglobulines[8], complexes immuns circulants, facteur rhumatoïde, leishmaniose, trypanosomiase...) ;
+Gammapathies monoclonales (myélome multiple à IgG ou à IgA, macroglobulinémie de Waldenström) et polyclonales (syndrome de Sjögren, lymphadénopathie angio-immunoblastique, anomalies des immunoglobulines, complexes immuns circulants, facteur rhumatoïde, leishmaniose, trypanosomiase...) ;
 Cryoglobulinémies ;
 Augmentation des protéines de l'inflammation (dysfibrinogénémie) ;
 Augmentation de l'agrégabilité des hématies ;
 Diminution de la déformabilité des hématies ;
 Hypothermies.
-Des causes rares sont des complications d'hypergammaglobulinémies majeures, parfois associées au VIH[9], à des hépatites[10], à une maladie de Castleman[11] ; une hausse modérée de la viscosité sanguine au cours des dyslipidémies est clairement associée au risque d’accident ischémique[12], les cas de SHV sont exceptionnels[13] ; mais les (rares) myélomes hyperlipidémiques semblent plus fréquemment associés à un SHV[14].
+Des causes rares sont des complications d'hypergammaglobulinémies majeures, parfois associées au VIH, à des hépatites, à une maladie de Castleman ; une hausse modérée de la viscosité sanguine au cours des dyslipidémies est clairement associée au risque d’accident ischémique, les cas de SHV sont exceptionnels ; mais les (rares) myélomes hyperlipidémiques semblent plus fréquemment associés à un SHV.
 </t>
         </is>
       </c>
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_d%27hyperviscosit%C3%A9</t>
+          <t>Syndrome_d'hyperviscosité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Signes généraux : asthénie, anorexie et altération de l'état général ;
 Signes neurologiques avec céphalées, troubles du comportement, somnolence, troubles de la vigilance (pouvant aller jusqu'au coma) ;
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_d%27hyperviscosit%C3%A9</t>
+          <t>Syndrome_d'hyperviscosité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un traitement étiologique est la plupart du temps nécessaire.
 Parfois, dans l'hyperviscosité plasmatique symptomatique, il est nécessaire de réaliser un traitement d’urgence par saignées (notamment en cas d'hyperviscosité lié à une maladie de Vaquez).
